--- a/data/trans_camb/IP16B98-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B98-Habitat-trans_camb.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 43,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 29,41</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 77,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 42,26</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,56</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-13,41</t>
+          <t>8,9</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>7,31</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,15</t>
+          <t>-15,77; 43,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-62,56; 0,0</t>
+          <t>0,0; 37,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 30,5</t>
+          <t>-3,99; 29,41</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-13,41%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>8,22%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,33</t>
+          <t>-15,88; 77,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-62,56; 0,0</t>
+          <t>0,0; 60,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 43,9</t>
+          <t>-4,49; 42,26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-15,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>33,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,69; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,47; 36,02</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,78%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,37%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,6%</t>
         </is>
       </c>
     </row>
@@ -913,24 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,69; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,06; 56,23</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-15,78</t>
+          <t>12,56</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>33,05</t>
+          <t>-13,41</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>2,53</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-68,69; 0,0</t>
+          <t>0,0; 45,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>-62,56; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-23,47; 36,02</t>
+          <t>-13,2; 30,5</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-15,78%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>49,37%</t>
+          <t>-13,41%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>2,78%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-68,69; 0,0</t>
+          <t>0,0; 82,33</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; —</t>
+          <t>-62,56; 0,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-31,06; 56,23</t>
+          <t>-13,27; 43,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B98-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B98-Habitat-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 43,42</t>
+          <t>-16,19; 43,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,66</t>
+          <t>0,0; 47,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 29,41</t>
+          <t>-3,86; 29,94</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 77,46</t>
+          <t>-16,25; 76,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,42</t>
+          <t>0,0; 90,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 42,26</t>
+          <t>-3,86; 45,23</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-68,69; 0,0</t>
+          <t>-57,42; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-23,47; 36,02</t>
+          <t>-24,38; 36,57</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-68,69; 0,0</t>
+          <t>-57,42; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,06; 56,23</t>
+          <t>-32,42; 57,64</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,15</t>
+          <t>0,0; 45,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-62,56; 0,0</t>
+          <t>-58,91; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 30,5</t>
+          <t>-13,03; 32,6</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,33</t>
+          <t>0,0; 83,03</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-62,56; 0,0</t>
+          <t>-58,91; 0,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 43,9</t>
+          <t>-13,19; 48,15</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 16,6</t>
+          <t>-11,06; 15,58</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 19,86</t>
+          <t>-4,71; 18,28</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 12,75</t>
+          <t>-4,71; 14,44</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,24 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 19,74</t>
+          <t>-11,41; 19,72</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 25,59</t>
+          <t>-4,71; 22,51</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 15,21</t>
+          <t>-4,79; 17,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B98-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B98-Habitat-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -738,7 +738,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,19; 43,3</t>
+          <t>-16,2; 43,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,41</t>
+          <t>0,0; 37,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 29,94</t>
+          <t>-3,78; 30,06</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 76,08</t>
+          <t>-16,29; 75,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 90,16</t>
+          <t>0,0; 60,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 45,23</t>
+          <t>-3,79; 44,91</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-57,42; 0,0</t>
+          <t>-57,39; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-24,38; 36,57</t>
+          <t>-22,96; 36,57</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-57,42; 0,0</t>
+          <t>-57,39; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,42; 57,64</t>
+          <t>-25,34; 57,58</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,36</t>
+          <t>0,0; 46,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-58,91; 0,0</t>
+          <t>-63,38; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 32,6</t>
+          <t>-13,32; 26,56</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,03</t>
+          <t>0,0; 87,73</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-58,91; 0,0</t>
+          <t>-63,38; 0,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 48,15</t>
+          <t>-13,47; 39,09</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 15,58</t>
+          <t>-12,58; 16,46</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 18,28</t>
+          <t>-4,0; 19,92</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 14,44</t>
+          <t>-5,09; 12,99</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 19,72</t>
+          <t>-12,59; 20,16</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 22,51</t>
+          <t>-4,13; 25,71</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 17,22</t>
+          <t>-5,18; 15,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B98-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B98-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -642,7 +642,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,31</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 37,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,77; 43,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,99; 29,41</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,22%</t>
         </is>
       </c>
     </row>
@@ -721,24 +721,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 60,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,88; 77,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 42,26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>33,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>-15,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>0,53</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 43,13</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,63</t>
+          <t>-68,69; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 30,06</t>
+          <t>-23,47; 36,02</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>49,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>-15,78%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>0,6%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 75,54</t>
+          <t>0,0; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,32</t>
+          <t>-68,69; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 44,91</t>
+          <t>-31,06; 56,23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-15,78</t>
+          <t>-13,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>33,05</t>
+          <t>12,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>2,53</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-57,39; 0,0</t>
+          <t>-62,56; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 45,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 36,57</t>
+          <t>-13,2; 30,5</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-15,78%</t>
+          <t>-13,41%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>49,37%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>2,78%</t>
         </is>
       </c>
     </row>
@@ -913,24 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-57,39; 0,0</t>
+          <t>-62,56; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; —</t>
+          <t>0,0; 82,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 57,58</t>
+          <t>-13,27; 43,9</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>12,56</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-13,41</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>2,89</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,49</t>
+          <t>-2,66; 19,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-63,38; 0,0</t>
+          <t>-10,49; 16,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 26,56</t>
+          <t>-6,09; 12,75</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-13,41%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>3,12%</t>
         </is>
       </c>
     </row>
@@ -1009,131 +1009,34 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 87,73</t>
+          <t>-2,66; 25,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-63,38; 0,0</t>
+          <t>-11,23; 19,74</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 39,09</t>
+          <t>-6,02; 15,21</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,17</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>4,64</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-12,58; 16,46</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-4,0; 19,92</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-5,09; 12,99</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>1,27%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>5,0%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>3,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-12,59; 20,16</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-4,13; 25,71</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-5,18; 15,73</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
